--- a/util/Tabelas.xlsx
+++ b/util/Tabelas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Cerqueira\Desktop\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py\website\Horizon\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/util/Tabelas.xlsx
+++ b/util/Tabelas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>M2M</t>
   </si>
@@ -111,13 +111,28 @@
   </si>
   <si>
     <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>img2</t>
+  </si>
+  <si>
+    <t>img3</t>
+  </si>
+  <si>
+    <t>img4</t>
+  </si>
+  <si>
+    <t>IMAGEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +156,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -159,9 +186,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -174,12 +231,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -189,132 +291,100 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -596,7 +666,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,179 +678,195 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="5"/>
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="5"/>
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="5"/>
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="5"/>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="5"/>
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="E8" s="11"/>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="5"/>
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-    </row>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="D16" s="15" t="s">
+      <c r="B16" s="15"/>
+      <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="15" t="s">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
